--- a/medicine/Enfance/Marina_Colasanti/Marina_Colasanti.xlsx
+++ b/medicine/Enfance/Marina_Colasanti/Marina_Colasanti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marina Colasanti, née le 26 septembre 1937 à Asmara dans l'ancienne colonie italienne d'Érythrée, est une romancière, poétesse, journaliste, auteure jeunesse et traductrice italo-brésilienne.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa famille émigre en Libye, puis en l'Italie, et s'installe au Brésil[1] lorsqu'elle a 11 ans. Elle y étudie les beaux-arts et travaille comme journaliste et traductrice. Elle publie son premier ouvrage à la fin des années 1970, et continue de créer des ouvrages, qu'elle écrit et illustre[1]. Elle est également traductrice depuis l'Italien et depuis l'Espagnol, vers le Portugais[1]. Pour ses traductions, elle figure plusieurs fois dans la « Liste d'honneur » de l'IBBY, en 2004[2], et en 2016[3] pour sa traduction de Stefano de María Teresa Andruetto. En 2020, elle figure une nouvelle fois dans la « Liste d'honneur » de l'IBBY[4], dans la catégorie Écriture cette fois, pour son ouvrage Quando a primavera chegar.
-En 2022, elle est à nouveau sélectionnée pour représenter son pays, le Brésil, pour le Prix Hans-Christian-Andersen, dans la catégorie Écriture[5], prix international danois. Elle avait été sélectionnée en 2016, 2018 et 2020[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa famille émigre en Libye, puis en l'Italie, et s'installe au Brésil lorsqu'elle a 11 ans. Elle y étudie les beaux-arts et travaille comme journaliste et traductrice. Elle publie son premier ouvrage à la fin des années 1970, et continue de créer des ouvrages, qu'elle écrit et illustre. Elle est également traductrice depuis l'Italien et depuis l'Espagnol, vers le Portugais. Pour ses traductions, elle figure plusieurs fois dans la « Liste d'honneur » de l'IBBY, en 2004, et en 2016 pour sa traduction de Stefano de María Teresa Andruetto. En 2020, elle figure une nouvelle fois dans la « Liste d'honneur » de l'IBBY, dans la catégorie Écriture cette fois, pour son ouvrage Quando a primavera chegar.
+En 2022, elle est à nouveau sélectionnée pour représenter son pays, le Brésil, pour le Prix Hans-Christian-Andersen, dans la catégorie Écriture, prix international danois. Elle avait été sélectionnée en 2016, 2018 et 2020.
 </t>
         </is>
       </c>
@@ -543,15 +557,17 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1978 : O Melhor para o Jovem, da Fundação Nacional do Livro Infantil e Juvenil, pour Uma idéia toda azul
-2004 : (international) « Liste d'honneur » de l'IBBY[2], catégorie Traduction, pour sa traduction de Les aventures de Pinocchio de Colladi.
+2004 : (international) « Liste d'honneur » de l'IBBY, catégorie Traduction, pour sa traduction de Les aventures de Pinocchio de Colladi.
 2011 : Prix Jabuti
 2011 : Prix Portugal Telecom de Literatura pour Minha Guerra Alheia 
-2016 : (international) « Liste d'honneur » de l'IBBY[3], catégorie Traduction, pour sa traduction de Stefano de María Teresa Andruetto
-2020 : (international) « Liste d'honneur » de l'IBBY[4], catégorie Écriture, pour Quando a primavera chegar 
-2016, 2018, 2020 et 2022 :  Sélection Brésil du Prix Hans-Christian-Andersen, dans la catégorie Écriture[5],[6]</t>
+2016 : (international) « Liste d'honneur » de l'IBBY, catégorie Traduction, pour sa traduction de Stefano de María Teresa Andruetto
+2020 : (international) « Liste d'honneur » de l'IBBY, catégorie Écriture, pour Quando a primavera chegar 
+2016, 2018, 2020 et 2022 :  Sélection Brésil du Prix Hans-Christian-Andersen, dans la catégorie Écriture,</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hora de alimentar serpentes (2013)
 Passageira em trânsito (2010)
